--- a/Lab7Excel/input.xlsx
+++ b/Lab7Excel/input.xlsx
@@ -152,7 +152,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -160,7 +160,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -177,7 +177,7 @@
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <f aca="false">SUM(A1,A2,A3)</f>
-        <v>14</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
